--- a/translation.xlsx
+++ b/translation.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2466"/>
+  <dimension ref="A1:E2559"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -56784,7 +56784,6 @@
           <t>Exceed_Length</t>
         </is>
       </c>
-      <c r="E2257" t="inlineStr"/>
     </row>
     <row r="2258">
       <c r="A2258" t="n">
@@ -62006,6 +62005,2331 @@
         </is>
       </c>
       <c r="E2466" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" t="n">
+        <v>2466</v>
+      </c>
+      <c r="B2467" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2467" t="inlineStr">
+        <is>
+          <t>helpful</t>
+        </is>
+      </c>
+      <c r="D2467" t="inlineStr">
+        <is>
+          <t>সহায়ক</t>
+        </is>
+      </c>
+      <c r="E2467" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" t="n">
+        <v>2467</v>
+      </c>
+      <c r="B2468" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2468" t="inlineStr">
+        <is>
+          <t xml:space="preserve">অসাধারণ </t>
+        </is>
+      </c>
+      <c r="D2468" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2468" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" t="n">
+        <v>2468</v>
+      </c>
+      <c r="B2469" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2469" t="inlineStr">
+        <is>
+          <t>বেশ ভালো</t>
+        </is>
+      </c>
+      <c r="D2469" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2469" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2470">
+      <c r="A2470" t="n">
+        <v>2469</v>
+      </c>
+      <c r="B2470" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2470" t="inlineStr">
+        <is>
+          <t>sunddorr</t>
+        </is>
+      </c>
+      <c r="D2470" t="inlineStr">
+        <is>
+          <t>সানডোর</t>
+        </is>
+      </c>
+      <c r="E2470" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2471">
+      <c r="A2471" t="n">
+        <v>2470</v>
+      </c>
+      <c r="B2471" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2471" t="inlineStr">
+        <is>
+          <t>Was good</t>
+        </is>
+      </c>
+      <c r="D2471" t="inlineStr">
+        <is>
+          <t>ভাল ছিল</t>
+        </is>
+      </c>
+      <c r="E2471" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" t="n">
+        <v>2471</v>
+      </c>
+      <c r="B2472" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2472" t="inlineStr">
+        <is>
+          <t>Helpful</t>
+        </is>
+      </c>
+      <c r="D2472" t="inlineStr">
+        <is>
+          <t>সহায়ক</t>
+        </is>
+      </c>
+      <c r="E2472" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" t="n">
+        <v>2472</v>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2473" t="inlineStr">
+        <is>
+          <t>great</t>
+        </is>
+      </c>
+      <c r="D2473" t="inlineStr">
+        <is>
+          <t>দুর্দান্ত</t>
+        </is>
+      </c>
+      <c r="E2473" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" t="n">
+        <v>2473</v>
+      </c>
+      <c r="B2474" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2474" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D2474" t="inlineStr">
+        <is>
+          <t>ভাল</t>
+        </is>
+      </c>
+      <c r="E2474" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2475">
+      <c r="A2475" t="n">
+        <v>2474</v>
+      </c>
+      <c r="B2475" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2475" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="D2475" t="inlineStr">
+        <is>
+          <t>ভাল</t>
+        </is>
+      </c>
+      <c r="E2475" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2476">
+      <c r="A2476" t="n">
+        <v>2475</v>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2476" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="D2476" t="inlineStr">
+        <is>
+          <t>ভাল</t>
+        </is>
+      </c>
+      <c r="E2476" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" t="n">
+        <v>2476</v>
+      </c>
+      <c r="B2477" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2477" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D2477" t="inlineStr">
+        <is>
+          <t>ভাল</t>
+        </is>
+      </c>
+      <c r="E2477" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" t="n">
+        <v>2477</v>
+      </c>
+      <c r="B2478" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2478" t="inlineStr">
+        <is>
+          <t>Gg</t>
+        </is>
+      </c>
+      <c r="D2478" t="inlineStr">
+        <is>
+          <t>জিজি</t>
+        </is>
+      </c>
+      <c r="E2478" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2479">
+      <c r="A2479" t="n">
+        <v>2478</v>
+      </c>
+      <c r="B2479" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2479" t="inlineStr">
+        <is>
+          <t>বিচিত্রা সিরিজের বইগুলো ভার্সিটি ভর্তি পরীক্ষার সময় আমার খুব প্রিয় ছিল। পদার্থবিজ্ঞানের এই বইতে কলেজের বইয়ের প্রথম ও দ্বিতীয় পত্রের সকল অধ্যায়ের সারমর্ম দেয়া আছে। এছাড়া প্রতিটি অধ্যায়ে প্রয়োজনীয় সূত্র এক জায়গায় গুছিয়ে লেখা আছে, যা শিক্ষার্থীদেরকে অধ্যায়টি আয়ত্ব করতে সহায়তা করবে। এছাড়া এই বইতে সকল বিশ্ববিদ্যালয়ে বিগত বছরে আসা প্রশ্নগুলোর সঠিক সমাধান সহ দেয়া আছে। যা শিক্ষার্থীকে বিশ্ববিদ্যালয়ে ভর্তির স্বপ্ন পূরণে এক ধাপ এগিয়ে রাখবে।</t>
+        </is>
+      </c>
+      <c r="D2479" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2479" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2480">
+      <c r="A2480" t="n">
+        <v>2479</v>
+      </c>
+      <c r="B2480" t="inlineStr">
+        <is>
+          <t>Mixed</t>
+        </is>
+      </c>
+      <c r="C2480" t="inlineStr">
+        <is>
+          <t>Evething about this book is just amazing. However, my book had a little black spot on a page. For this reason I can't rate it 5⭐The delivery was fast and good. Comparing to other sites, Rokomari always supplies good products.Thanks for your service 😊</t>
+        </is>
+      </c>
+      <c r="D2480" t="inlineStr">
+        <is>
+          <t>এই বইটি সম্পর্কে এভথিংটি কেবল আশ্চর্যজনক।তবে আমার বইটিতে একটি পৃষ্ঠায় কিছুটা কালো স্পট ছিল।এই কারণে আমি এটি রেট করতে পারি না 5 delivery ডেলিভারি দ্রুত এবং ভাল ছিল।অন্যান্য সাইটের সাথে তুলনা করে, রোকোমারি সর্বদা ভাল পণ্য সরবরাহ করে your আপনার পরিষেবার জন্য ধন্যবাদ 😊</t>
+        </is>
+      </c>
+      <c r="E2480" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2481">
+      <c r="A2481" t="n">
+        <v>2480</v>
+      </c>
+      <c r="B2481" t="inlineStr">
+        <is>
+          <t>Mixed</t>
+        </is>
+      </c>
+      <c r="C2481" t="inlineStr">
+        <is>
+          <t>The book is very helpful for me as well as others.I think this the best book for addmission test in buet as well as all of the Engineering institutions... It is also helpful for all vercities.. ☺☺I want to thank joykoli and rokomari... 😇Tnx..☺😊☺</t>
+        </is>
+      </c>
+      <c r="D2481" t="inlineStr">
+        <is>
+          <t>বইটি আমার পাশাপাশি অন্যদের জন্য খুব সহায়ক Iএবং রোকোমারি ... 😇tnx..☺😊☺</t>
+        </is>
+      </c>
+      <c r="E2481" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2482">
+      <c r="A2482" t="n">
+        <v>2481</v>
+      </c>
+      <c r="B2482" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2482" t="inlineStr">
+        <is>
+          <t>Boiti ami kichudin agei order korechilam,amar academic physics boi porar pasapasi ei boiti porbo,amr kache boiti onek helpful mone hoyeche.</t>
+        </is>
+      </c>
+      <c r="D2482" t="inlineStr">
+        <is>
+          <t>বইটি আমি কিছুদিন আগেই অর্ডার করেছিলাম,আমার একাডেমিক ফিসিক্স বই পড়ার পাশাপাশি এই বইটি পর্ব,আমার কাছে বইটি অনেক হেল্পফুল মনে হয়েছে.</t>
+        </is>
+      </c>
+      <c r="E2482" t="inlineStr">
+        <is>
+          <t>bn</t>
+        </is>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" t="n">
+        <v>2482</v>
+      </c>
+      <c r="B2483" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2483" t="inlineStr">
+        <is>
+          <t>এম সি কিউ এর জন্য সেরা বই।  আমি বইটি পরে সত্যি উপকৃত হয়েছি। আপনারা যদি বইটি অনুসরন করেন এইচ. আস. সি তে এমসিকিউ তে অবশ্যই ভাল করবেন।</t>
+        </is>
+      </c>
+      <c r="D2483" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2483" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2484">
+      <c r="A2484" t="n">
+        <v>2483</v>
+      </c>
+      <c r="B2484" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2484" t="inlineStr">
+        <is>
+          <t>This book is very helpful for me ,,one of the best book for addmission test dhaka university and others university..</t>
+        </is>
+      </c>
+      <c r="D2484" t="inlineStr">
+        <is>
+          <t>এই বইটি আমার পক্ষে খুব সহায়ক, ভর্তি পরীক্ষা Dhaka াকা বিশ্ববিদ্যালয় এবং অন্যান্য বিশ্ববিদ্যালয়ের অন্যতম সেরা বই ..</t>
+        </is>
+      </c>
+      <c r="E2484" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2485">
+      <c r="A2485" t="n">
+        <v>2484</v>
+      </c>
+      <c r="B2485" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ভার্সিটি ভর্তি পরীক্ষার জন্য অনেক হেল্পফুল। বইটিতে কিছু জায়গায় ভুল ও প্রিন্টিং মিস্টেক রয়েছে যা সংশোধন করা প্রয়োজন। </t>
+        </is>
+      </c>
+      <c r="D2485" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2485" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2486">
+      <c r="A2486" t="n">
+        <v>2485</v>
+      </c>
+      <c r="B2486" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2486" t="inlineStr">
+        <is>
+          <t>outstanding book I have ever seen.</t>
+        </is>
+      </c>
+      <c r="D2486" t="inlineStr">
+        <is>
+          <t>আমি কখনও দেখেছি অসামান্য বই।</t>
+        </is>
+      </c>
+      <c r="E2486" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2487">
+      <c r="A2487" t="n">
+        <v>2486</v>
+      </c>
+      <c r="B2487" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">বইটি খুব ভালো এবং তথ্যবহুলও । </t>
+        </is>
+      </c>
+      <c r="D2487" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2487" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2488">
+      <c r="A2488" t="n">
+        <v>2487</v>
+      </c>
+      <c r="B2488" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2488" t="inlineStr">
+        <is>
+          <t>ভালো বই একটা</t>
+        </is>
+      </c>
+      <c r="D2488" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2488" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2489">
+      <c r="A2489" t="n">
+        <v>2488</v>
+      </c>
+      <c r="B2489" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2489" t="inlineStr">
+        <is>
+          <t>Sundor boi. Jothesto sajano gochano vabe sob kisu deya ase. I recommend it.</t>
+        </is>
+      </c>
+      <c r="D2489" t="inlineStr">
+        <is>
+          <t>সুন্দর বই. যথেষ্ট সাজানো গোছানো ভাবে সব কিসু দেয়া আসে. ই রেকমেন্ড ইট.</t>
+        </is>
+      </c>
+      <c r="E2489" t="inlineStr">
+        <is>
+          <t>bn</t>
+        </is>
+      </c>
+    </row>
+    <row r="2490">
+      <c r="A2490" t="n">
+        <v>2489</v>
+      </c>
+      <c r="B2490" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2490" t="inlineStr">
+        <is>
+          <t>খুবই ভালো, সাঁজানো গোঁছানো।বাট কিছু কিছু হালকা ভুল আছে।</t>
+        </is>
+      </c>
+      <c r="D2490" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2490" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="A2491" t="n">
+        <v>2490</v>
+      </c>
+      <c r="B2491" t="inlineStr">
+        <is>
+          <t>Mixed</t>
+        </is>
+      </c>
+      <c r="C2491" t="inlineStr">
+        <is>
+          <t>boi gulo valo  hsc er students ra kinle r o valo😊</t>
+        </is>
+      </c>
+      <c r="D2491" t="inlineStr">
+        <is>
+          <t>boi gulo valo  hsc er students ra kinle r o valo😊</t>
+        </is>
+      </c>
+      <c r="E2491" t="inlineStr">
+        <is>
+          <t>bn</t>
+        </is>
+      </c>
+    </row>
+    <row r="2492">
+      <c r="A2492" t="n">
+        <v>2491</v>
+      </c>
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Best book for Admission. I am satisfied </t>
+        </is>
+      </c>
+      <c r="D2492" t="inlineStr">
+        <is>
+          <t>ভর্তির জন্য সেরা বই।আমি সন্তুষ্ট</t>
+        </is>
+      </c>
+      <c r="E2492" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="A2493" t="n">
+        <v>2492</v>
+      </c>
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2493" t="inlineStr">
+        <is>
+          <t>besh valo boi,shob kiso ekshathe ache</t>
+        </is>
+      </c>
+      <c r="D2493" t="inlineStr">
+        <is>
+          <t>বেশ ভালো বই,সব কিস একসাথে আছে</t>
+        </is>
+      </c>
+      <c r="E2493" t="inlineStr">
+        <is>
+          <t>bn</t>
+        </is>
+      </c>
+    </row>
+    <row r="2494">
+      <c r="A2494" t="n">
+        <v>2493</v>
+      </c>
+      <c r="B2494" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2494" t="inlineStr">
+        <is>
+          <t>very good.....Thanks you Rokomary.com</t>
+        </is>
+      </c>
+      <c r="D2494" t="inlineStr">
+        <is>
+          <t>খুব ভাল ..... ধন্যবাদ আপনি rokomary.com</t>
+        </is>
+      </c>
+      <c r="E2494" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2495">
+      <c r="A2495" t="n">
+        <v>2494</v>
+      </c>
+      <c r="B2495" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2495" t="inlineStr">
+        <is>
+          <t>জয়কলির বইগুলো পড়ে উপকৃত হচ্ছি</t>
+        </is>
+      </c>
+      <c r="D2495" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2495" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2496">
+      <c r="A2496" t="n">
+        <v>2495</v>
+      </c>
+      <c r="B2496" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2496" t="inlineStr">
+        <is>
+          <t>জয়কলি'র বই মানেই সাফল্য</t>
+        </is>
+      </c>
+      <c r="D2496" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2496" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2497">
+      <c r="A2497" t="n">
+        <v>2496</v>
+      </c>
+      <c r="B2497" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2497" t="inlineStr">
+        <is>
+          <t>একদিন দেরিতে হাতে পেয়েছি</t>
+        </is>
+      </c>
+      <c r="D2497" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2497" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2498">
+      <c r="A2498" t="n">
+        <v>2497</v>
+      </c>
+      <c r="B2498" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2498" t="inlineStr">
+        <is>
+          <t xml:space="preserve">খুবই চমৎকার একটি বই। </t>
+        </is>
+      </c>
+      <c r="D2498" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2498" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2499">
+      <c r="A2499" t="n">
+        <v>2498</v>
+      </c>
+      <c r="B2499" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2499" t="inlineStr">
+        <is>
+          <t>এককথায় অসাধারণ বইটি🥰</t>
+        </is>
+      </c>
+      <c r="D2499" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2499" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2500">
+      <c r="A2500" t="n">
+        <v>2499</v>
+      </c>
+      <c r="B2500" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2500" t="inlineStr">
+        <is>
+          <t>Good delivery</t>
+        </is>
+      </c>
+      <c r="D2500" t="inlineStr">
+        <is>
+          <t>ভাল বিতরণ</t>
+        </is>
+      </c>
+      <c r="E2500" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2501">
+      <c r="A2501" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B2501" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2501" t="inlineStr">
+        <is>
+          <t>Good enough..</t>
+        </is>
+      </c>
+      <c r="D2501" t="inlineStr">
+        <is>
+          <t>যথেষ্ট..</t>
+        </is>
+      </c>
+      <c r="E2501" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="A2502" t="n">
+        <v>2501</v>
+      </c>
+      <c r="B2502" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2502" t="inlineStr">
+        <is>
+          <t>95% satisfied</t>
+        </is>
+      </c>
+      <c r="D2502" t="inlineStr">
+        <is>
+          <t>95% সন্তুষ্ট</t>
+        </is>
+      </c>
+      <c r="E2502" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2503">
+      <c r="A2503" t="n">
+        <v>2502</v>
+      </c>
+      <c r="B2503" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2503" t="inlineStr">
+        <is>
+          <t>Really good</t>
+        </is>
+      </c>
+      <c r="D2503" t="inlineStr">
+        <is>
+          <t>আসলেই ভাল</t>
+        </is>
+      </c>
+      <c r="E2503" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2504">
+      <c r="A2504" t="n">
+        <v>2503</v>
+      </c>
+      <c r="B2504" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2504" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ma-Sa-Allah </t>
+        </is>
+      </c>
+      <c r="D2504" t="inlineStr">
+        <is>
+          <t>আগ্রহ</t>
+        </is>
+      </c>
+      <c r="E2504" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="2505">
+      <c r="A2505" t="n">
+        <v>2504</v>
+      </c>
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>Mixed</t>
+        </is>
+      </c>
+      <c r="C2505" t="inlineStr">
+        <is>
+          <t>Onk helpful✨</t>
+        </is>
+      </c>
+      <c r="D2505" t="inlineStr">
+        <is>
+          <t>ওঙ্ক সহায়ক ✨</t>
+        </is>
+      </c>
+      <c r="E2505" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2506">
+      <c r="A2506" t="n">
+        <v>2505</v>
+      </c>
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2506" t="inlineStr">
+        <is>
+          <t>Good enough</t>
+        </is>
+      </c>
+      <c r="D2506" t="inlineStr">
+        <is>
+          <t>যথেষ্ট</t>
+        </is>
+      </c>
+      <c r="E2506" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2507">
+      <c r="A2507" t="n">
+        <v>2506</v>
+      </c>
+      <c r="B2507" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2507" t="inlineStr">
+        <is>
+          <t>helpfull</t>
+        </is>
+      </c>
+      <c r="D2507" t="inlineStr">
+        <is>
+          <t>সহায়ক</t>
+        </is>
+      </c>
+      <c r="E2507" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2508">
+      <c r="A2508" t="n">
+        <v>2507</v>
+      </c>
+      <c r="B2508" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2508" t="inlineStr">
+        <is>
+          <t>helpful</t>
+        </is>
+      </c>
+      <c r="D2508" t="inlineStr">
+        <is>
+          <t>সহায়ক</t>
+        </is>
+      </c>
+      <c r="E2508" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2509">
+      <c r="A2509" t="n">
+        <v>2508</v>
+      </c>
+      <c r="B2509" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2509" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="D2509" t="inlineStr">
+        <is>
+          <t>ভাল</t>
+        </is>
+      </c>
+      <c r="E2509" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2510">
+      <c r="A2510" t="n">
+        <v>2509</v>
+      </c>
+      <c r="B2510" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2510" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="D2510" t="inlineStr">
+        <is>
+          <t>ভাল</t>
+        </is>
+      </c>
+      <c r="E2510" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2511">
+      <c r="A2511" t="n">
+        <v>2510</v>
+      </c>
+      <c r="B2511" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2511" t="inlineStr">
+        <is>
+          <t>nice</t>
+        </is>
+      </c>
+      <c r="D2511" t="inlineStr">
+        <is>
+          <t>সুন্দর</t>
+        </is>
+      </c>
+      <c r="E2511" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2512">
+      <c r="A2512" t="n">
+        <v>2511</v>
+      </c>
+      <c r="B2512" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2512" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="D2512" t="inlineStr">
+        <is>
+          <t>ভাল</t>
+        </is>
+      </c>
+      <c r="E2512" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2513">
+      <c r="A2513" t="n">
+        <v>2512</v>
+      </c>
+      <c r="B2513" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2513" t="inlineStr">
+        <is>
+          <t>nice</t>
+        </is>
+      </c>
+      <c r="D2513" t="inlineStr">
+        <is>
+          <t>সুন্দর</t>
+        </is>
+      </c>
+      <c r="E2513" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2514">
+      <c r="A2514" t="n">
+        <v>2513</v>
+      </c>
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2514" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="D2514" t="inlineStr">
+        <is>
+          <t>ভাল</t>
+        </is>
+      </c>
+      <c r="E2514" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2515">
+      <c r="A2515" t="n">
+        <v>2514</v>
+      </c>
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2515" t="inlineStr">
+        <is>
+          <t>Gg</t>
+        </is>
+      </c>
+      <c r="D2515" t="inlineStr">
+        <is>
+          <t>জিজি</t>
+        </is>
+      </c>
+      <c r="E2515" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2516">
+      <c r="A2516" t="n">
+        <v>2515</v>
+      </c>
+      <c r="B2516" t="inlineStr">
+        <is>
+          <t>Mixed</t>
+        </is>
+      </c>
+      <c r="C2516" t="inlineStr">
+        <is>
+          <t>😊</t>
+        </is>
+      </c>
+      <c r="D2516" t="inlineStr">
+        <is>
+          <t>😊</t>
+        </is>
+      </c>
+      <c r="E2516" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2517">
+      <c r="A2517" t="n">
+        <v>2516</v>
+      </c>
+      <c r="B2517" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2517" t="inlineStr">
+        <is>
+          <t>বিচিত্রার রসায়ন বইটি নিঃসন্দেহে খুব ভালো একটি বই। স্বল্প সময়ে ভার্সিটির প্রিপারেশন নিতে খুবই ফলপ্রসু। বাজারে রসায়নের যে বোর্ড বইগুলো পাওয়া যায় তা গত বাধা আর এলোমেলো ভাবে অধ্যায় সাজানো থাকে। অনেক সময় দেখা যায় যে, অধ্যায় সম্পূর্ণ পড়া থাকলেও পরীক্ষায় ভালো করার জন্য অধ্যায়ের বাইরেও অনেক কিছু জানা লাগে। বিচিত্রার রসায়ন বইটিতে ছন্দের সাহায্যে রসায়নের জটিল বিষয়গুলোকে উপস্থাপন করা হয়েছে। এছাড়া প্রতিটি অধ্যায়ের গুরুত্বপূর্ণ তথ্য একজায়গায় গুছিয়ে লেখা হয়েছে। অধ্যায়ের ম্যাথগুলোর নির্ভুল সমাধান দেয়া আছে।যা একজন শিক্ষার্থীকে রসায়ন বিষয়ে শক্ত ভিত্তি গড়ে তুলতে সাহায্য করবে।</t>
+        </is>
+      </c>
+      <c r="D2517" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2517" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2518">
+      <c r="A2518" t="n">
+        <v>2517</v>
+      </c>
+      <c r="B2518" t="inlineStr">
+        <is>
+          <t>Mixed</t>
+        </is>
+      </c>
+      <c r="C2518" t="inlineStr">
+        <is>
+          <t>অবশ্যই বই টি ভালো,কিন্তু এর থেকে chemistry plus বই টা আরো বেশি ভালো,joykoli এর সবচেয়ে ভালো বই ম্যাথ আর ফিজিক্স বিচিত্রা,আপনাদের chemisttry বিচিত্রা এর উপর আরো ভালো ভাবে নজর দেওয়া উচিত</t>
+        </is>
+      </c>
+      <c r="D2518" t="inlineStr">
+        <is>
+          <t>অবশ্যই বই টি ভালো,কিন্তু এর থেকে chemistry plus বই টা আরো বেশি ভালো,joykoli এর সবচেয়ে ভালো বই ম্যাথ আর ফিজিক্স বিচিত্রা,আপনাদের chemisttry বিচিত্রা এর উপর আরো ভালো ভাবে নজর দেওয়া উচিত</t>
+        </is>
+      </c>
+      <c r="E2518" t="inlineStr">
+        <is>
+          <t>bn</t>
+        </is>
+      </c>
+    </row>
+    <row r="2519">
+      <c r="A2519" t="n">
+        <v>2518</v>
+      </c>
+      <c r="B2519" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2519" t="inlineStr">
+        <is>
+          <t>this book is really good for admission and also for hsc xm</t>
+        </is>
+      </c>
+      <c r="D2519" t="inlineStr">
+        <is>
+          <t>এই বইটি ভর্তির জন্য এবং এইচএসসি এক্সএমের জন্যও ভাল</t>
+        </is>
+      </c>
+      <c r="E2519" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2520">
+      <c r="A2520" t="n">
+        <v>2519</v>
+      </c>
+      <c r="B2520" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2520" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helpful </t>
+        </is>
+      </c>
+      <c r="D2520" t="inlineStr">
+        <is>
+          <t>সহায়ক</t>
+        </is>
+      </c>
+      <c r="E2520" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2521">
+      <c r="A2521" t="n">
+        <v>2520</v>
+      </c>
+      <c r="B2521" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2521" t="inlineStr">
+        <is>
+          <t>good,</t>
+        </is>
+      </c>
+      <c r="D2521" t="inlineStr">
+        <is>
+          <t>ভাল,</t>
+        </is>
+      </c>
+      <c r="E2521" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2522">
+      <c r="A2522" t="n">
+        <v>2521</v>
+      </c>
+      <c r="B2522" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2522" t="inlineStr">
+        <is>
+          <t xml:space="preserve">good </t>
+        </is>
+      </c>
+      <c r="D2522" t="inlineStr">
+        <is>
+          <t>ভাল</t>
+        </is>
+      </c>
+      <c r="E2522" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" t="n">
+        <v>2522</v>
+      </c>
+      <c r="B2523" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2523" t="inlineStr">
+        <is>
+          <t>বইয়ের নামঃ গনিত বিচিত্রাবইটিতে খুবই গোছানোভাবে ইন্টারমেডিয়েটের প্রতিটি টাইপের ম্যাথ কিভাবে সহজে শর্ট করে সমাধান করা যায় তা তুলে ধরা হয়েছে। প্রতিটি অধ্যায়ের শেষে রয়েছে অধ্যায়ভিত্তিক মডেল টেস্ট ।এছাড়া রয়েছে বিভিন্ন ভর্তি পরীক্ষার প্রশ্ন। তাই বিশ্ববিদ্যালয় ভর্তি প্রস্তুতি নিতে এই বইটি অনন্য ভূমিকা রাখতে পারে।</t>
+        </is>
+      </c>
+      <c r="D2523" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2523" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2524">
+      <c r="A2524" t="n">
+        <v>2523</v>
+      </c>
+      <c r="B2524" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2524" t="inlineStr">
+        <is>
+          <t>এইচএসসি পরীক্ষা ও ভার্সিটি এডমিশনের জন্য এই বই টা অনেক উপকারী। এউ বইয়ে অনেক শর্ট টেকনিক দেওয়া আছে । যা শুধুমাত্র এডমিশনেই না বরং এইচএসসি পরীক্ষার এমসিকিউ তেও অনেক কাজে লাগে।</t>
+        </is>
+      </c>
+      <c r="D2524" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2524" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2525">
+      <c r="A2525" t="n">
+        <v>2524</v>
+      </c>
+      <c r="B2525" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2525" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If you are thinking to read many writer's  book in HSC then I would like to suggest you Don't Do This please. Follow only one writer's book  from A to Z </t>
+        </is>
+      </c>
+      <c r="D2525" t="inlineStr">
+        <is>
+          <t>আপনি যদি এইচএসসিতে অনেক লেখকের বই পড়ার কথা ভাবছেন তবে আমি আপনাকে পরামর্শ দিতে চাই যে আপনি এটি করবেন না।এ থেকে জেড পর্যন্ত কেবল একটি লেখকের বই অনুসরণ করুন</t>
+        </is>
+      </c>
+      <c r="E2525" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2526">
+      <c r="A2526" t="n">
+        <v>2525</v>
+      </c>
+      <c r="B2526" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2526" t="inlineStr">
+        <is>
+          <t>বইটি সত্যিই আকর্ষণীয় এবং শিক্ষামূলক।আমি মনে করি এটি এইচএসসি এবং ভর্তি পরীক্ষার উভয়ের জন্যই খুব সহায়ক।</t>
+        </is>
+      </c>
+      <c r="D2526" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2526" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2527">
+      <c r="A2527" t="n">
+        <v>2526</v>
+      </c>
+      <c r="B2527" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2527" t="inlineStr">
+        <is>
+          <t>খুব ভাল লাগছে ...।রকমারি ডেলিভারী ও তারাতারি করছে</t>
+        </is>
+      </c>
+      <c r="D2527" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2527" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2528">
+      <c r="A2528" t="n">
+        <v>2527</v>
+      </c>
+      <c r="B2528" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2528" t="inlineStr">
+        <is>
+          <t>Authentic and Original book.Thanks Rokomari.com</t>
+        </is>
+      </c>
+      <c r="D2528" t="inlineStr">
+        <is>
+          <t>খাঁটি এবং মূল বই। ধন্যবাদ রোকোমারি.কম</t>
+        </is>
+      </c>
+      <c r="E2528" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2529">
+      <c r="A2529" t="n">
+        <v>2528</v>
+      </c>
+      <c r="B2529" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2529" t="inlineStr">
+        <is>
+          <t>যতটা ভালো মনে করেছি বইটি ততটা ভালো মানের নয়।</t>
+        </is>
+      </c>
+      <c r="D2529" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2529" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2530">
+      <c r="A2530" t="n">
+        <v>2529</v>
+      </c>
+      <c r="B2530" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2530" t="inlineStr">
+        <is>
+          <t>Good Enough. No from me complaints so far.</t>
+        </is>
+      </c>
+      <c r="D2530" t="inlineStr">
+        <is>
+          <t>যথেষ্ট.আমার কাছ থেকে এখন পর্যন্ত অভিযোগ নেই।</t>
+        </is>
+      </c>
+      <c r="E2530" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2531">
+      <c r="A2531" t="n">
+        <v>2530</v>
+      </c>
+      <c r="B2531" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2531" t="inlineStr">
+        <is>
+          <t>বইয়ের ভুল গুলো শুধরে নেওয়ার চেষ্টা করুন।</t>
+        </is>
+      </c>
+      <c r="D2531" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2531" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2532">
+      <c r="A2532" t="n">
+        <v>2531</v>
+      </c>
+      <c r="B2532" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2532" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simple design and lots of information. </t>
+        </is>
+      </c>
+      <c r="D2532" t="inlineStr">
+        <is>
+          <t>সাধারণ নকশা এবং প্রচুর তথ্য।</t>
+        </is>
+      </c>
+      <c r="E2532" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2533">
+      <c r="A2533" t="n">
+        <v>2532</v>
+      </c>
+      <c r="B2533" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2533" t="inlineStr">
+        <is>
+          <t>আমি একদিন দেরিতে হাতে  পেয়েছি</t>
+        </is>
+      </c>
+      <c r="D2533" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2533" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2534">
+      <c r="A2534" t="n">
+        <v>2533</v>
+      </c>
+      <c r="B2534" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2534" t="inlineStr">
+        <is>
+          <t xml:space="preserve">boi ta valo 90% satisfied </t>
+        </is>
+      </c>
+      <c r="D2534" t="inlineStr">
+        <is>
+          <t>বই তা ভালো ৯০% সাতিস্ফিয়েদ</t>
+        </is>
+      </c>
+      <c r="E2534" t="inlineStr">
+        <is>
+          <t>bn</t>
+        </is>
+      </c>
+    </row>
+    <row r="2535">
+      <c r="A2535" t="n">
+        <v>2534</v>
+      </c>
+      <c r="B2535" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2535" t="inlineStr">
+        <is>
+          <t xml:space="preserve">বইটি সত্তিই অনেক হেল্পুল। </t>
+        </is>
+      </c>
+      <c r="D2535" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2535" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2536">
+      <c r="A2536" t="n">
+        <v>2535</v>
+      </c>
+      <c r="B2536" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2536" t="inlineStr">
+        <is>
+          <t>good book but high price</t>
+        </is>
+      </c>
+      <c r="D2536" t="inlineStr">
+        <is>
+          <t>ভাল বই কিন্তু উচ্চ মূল্য</t>
+        </is>
+      </c>
+      <c r="E2536" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2537">
+      <c r="A2537" t="n">
+        <v>2536</v>
+      </c>
+      <c r="B2537" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2537" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fantabulous Service </t>
+        </is>
+      </c>
+      <c r="D2537" t="inlineStr">
+        <is>
+          <t>চমত্কার পরিষেবা</t>
+        </is>
+      </c>
+      <c r="E2537" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2538">
+      <c r="A2538" t="n">
+        <v>2537</v>
+      </c>
+      <c r="B2538" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2538" t="inlineStr">
+        <is>
+          <t>onak valo boita</t>
+        </is>
+      </c>
+      <c r="D2538" t="inlineStr">
+        <is>
+          <t>অনেক ভালো বইটা</t>
+        </is>
+      </c>
+      <c r="E2538" t="inlineStr">
+        <is>
+          <t>bn</t>
+        </is>
+      </c>
+    </row>
+    <row r="2539">
+      <c r="A2539" t="n">
+        <v>2538</v>
+      </c>
+      <c r="B2539" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2539" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very nice book </t>
+        </is>
+      </c>
+      <c r="D2539" t="inlineStr">
+        <is>
+          <t>খুব সুন্দর বই</t>
+        </is>
+      </c>
+      <c r="E2539" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2540">
+      <c r="A2540" t="n">
+        <v>2539</v>
+      </c>
+      <c r="B2540" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2540" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Really helpful </t>
+        </is>
+      </c>
+      <c r="D2540" t="inlineStr">
+        <is>
+          <t>সত্যিই সহায়ক</t>
+        </is>
+      </c>
+      <c r="E2540" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2541">
+      <c r="A2541" t="n">
+        <v>2540</v>
+      </c>
+      <c r="B2541" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2541" t="inlineStr">
+        <is>
+          <t xml:space="preserve">অনেক ভালো!! </t>
+        </is>
+      </c>
+      <c r="D2541" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2541" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2542">
+      <c r="A2542" t="n">
+        <v>2541</v>
+      </c>
+      <c r="B2542" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2542" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ভালো...... </t>
+        </is>
+      </c>
+      <c r="D2542" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2542" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2543">
+      <c r="A2543" t="n">
+        <v>2542</v>
+      </c>
+      <c r="B2543" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2543" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Excellent </t>
+        </is>
+      </c>
+      <c r="D2543" t="inlineStr">
+        <is>
+          <t>দুর্দান্ত</t>
+        </is>
+      </c>
+      <c r="E2543" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2544">
+      <c r="A2544" t="n">
+        <v>2543</v>
+      </c>
+      <c r="B2544" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2544" t="inlineStr">
+        <is>
+          <t>best</t>
+        </is>
+      </c>
+      <c r="D2544" t="inlineStr">
+        <is>
+          <t>সেরা</t>
+        </is>
+      </c>
+      <c r="E2544" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2545">
+      <c r="A2545" t="n">
+        <v>2544</v>
+      </c>
+      <c r="B2545" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2545" t="inlineStr">
+        <is>
+          <t>vala</t>
+        </is>
+      </c>
+      <c r="D2545" t="inlineStr">
+        <is>
+          <t>ভালা</t>
+        </is>
+      </c>
+      <c r="E2545" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2546">
+      <c r="A2546" t="n">
+        <v>2545</v>
+      </c>
+      <c r="B2546" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2546" t="inlineStr">
+        <is>
+          <t>best</t>
+        </is>
+      </c>
+      <c r="D2546" t="inlineStr">
+        <is>
+          <t>সেরা</t>
+        </is>
+      </c>
+      <c r="E2546" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2547">
+      <c r="A2547" t="n">
+        <v>2546</v>
+      </c>
+      <c r="B2547" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2547" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D2547" t="inlineStr">
+        <is>
+          <t>ভাল</t>
+        </is>
+      </c>
+      <c r="E2547" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2548">
+      <c r="A2548" t="n">
+        <v>2547</v>
+      </c>
+      <c r="B2548" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2548" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="D2548" t="inlineStr">
+        <is>
+          <t>ভাল</t>
+        </is>
+      </c>
+      <c r="E2548" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2549">
+      <c r="A2549" t="n">
+        <v>2548</v>
+      </c>
+      <c r="B2549" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2549" t="inlineStr">
+        <is>
+          <t>Valo</t>
+        </is>
+      </c>
+      <c r="D2549" t="inlineStr">
+        <is>
+          <t>আলো</t>
+        </is>
+      </c>
+      <c r="E2549" t="inlineStr">
+        <is>
+          <t>fi</t>
+        </is>
+      </c>
+    </row>
+    <row r="2550">
+      <c r="A2550" t="n">
+        <v>2549</v>
+      </c>
+      <c r="B2550" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2550" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="D2550" t="inlineStr">
+        <is>
+          <t>ভাল</t>
+        </is>
+      </c>
+      <c r="E2550" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2551">
+      <c r="A2551" t="n">
+        <v>2550</v>
+      </c>
+      <c r="B2551" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2551" t="inlineStr">
+        <is>
+          <t>Wow</t>
+        </is>
+      </c>
+      <c r="D2551" t="inlineStr">
+        <is>
+          <t>কি দারুন</t>
+        </is>
+      </c>
+      <c r="E2551" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2552">
+      <c r="A2552" t="n">
+        <v>2551</v>
+      </c>
+      <c r="B2552" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2552" t="inlineStr">
+        <is>
+          <t>বিচিত্রা সিরিজের বইগুলোর মধ্যে সবচেয়ে ফলপ্রসু হল গণিত বিচিত্রা। কারণ বইটি লেখা হয়েছে গণিতে দুর্বল শিক্ষার্থীদের কথা মাথায় রেখে। বইটিতে সবচেয়ে ভালো যে বিষয়টি চোখে পড়ে তা হল, এখানে একটি অংকের শর্ট ট্যাকনিক ও বিস্তারিত সমাধান দুইটিই দেয়া হয়েছে। বাংলাদেশে একেক ভার্সিটি একেক নিয়মে পরীক্ষা নেয়।কোনটি লিখিতি, কোনটি বহুনির্বাচনি।এজন্য শিক্ষার্থীরা গণিত বিষয় টি নিহে বেশ ঝামেলায় থাকে। এই বইতে শর্ট ট্যাকনিক ও বিস্তারিত সমাধান দুইটিই দেয়া থাকায় শিক্ষার্থীদের উক্ত সমস্যা অনেকাংশেই সমাধান হবে।</t>
+        </is>
+      </c>
+      <c r="D2552" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2552" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2553">
+      <c r="A2553" t="n">
+        <v>2552</v>
+      </c>
+      <c r="B2553" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2553" t="inlineStr">
+        <is>
+          <t>I had ordered this book few days ago and recieved it today. Honestly, I never expected to recieve books via online. This was smooth and fine.About the book, it was nice getting the book in hand. I loved the shortcuts and every details are important and effective for both HSC and admission test.</t>
+        </is>
+      </c>
+      <c r="D2553" t="inlineStr">
+        <is>
+          <t>আমি এই বইটি কিছু দিন আগে অর্ডার করেছি এবং আজ এটি পুনরুদ্ধার করেছি।সত্যিই, আমি কখনই অনলাইনের মাধ্যমে বইগুলি গ্রহণ করার আশা করি না।এটি মসৃণ এবং সূক্ষ্ম ছিল the বইটি সম্পর্কে, বইটি হাতে পেয়ে ভাল লাগল।আমি শর্টকাটগুলি পছন্দ করেছি এবং প্রতিটি বিবরণ এইচএসসি এবং ভর্তি পরীক্ষার জন্য গুরুত্বপূর্ণ এবং কার্যকর।</t>
+        </is>
+      </c>
+      <c r="E2553" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2554">
+      <c r="A2554" t="n">
+        <v>2553</v>
+      </c>
+      <c r="B2554" t="inlineStr">
+        <is>
+          <t>Mixed</t>
+        </is>
+      </c>
+      <c r="C2554" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assalamualikum...I have received this book within 30 hours. The book quality is very good and devilry service is more good. Thanks Shohag Vai..Thanks Rokomari.🙂    </t>
+        </is>
+      </c>
+      <c r="D2554" t="inlineStr">
+        <is>
+          <t>আসালামুয়ালিকুম ... আমি এই বইটি 30 ঘন্টার মধ্যে পেয়েছি।বইয়ের গুণমানটি খুব ভাল এবং ডেভিলারি পরিষেবা আরও ভাল।ধন্যবাদ শোহাগ ভাই .. ধন্যবাদ রোকোমারি।</t>
+        </is>
+      </c>
+      <c r="E2554" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2555">
+      <c r="A2555" t="n">
+        <v>2554</v>
+      </c>
+      <c r="B2555" t="inlineStr">
+        <is>
+          <t>Mixed</t>
+        </is>
+      </c>
+      <c r="C2555" t="inlineStr">
+        <is>
+          <t>thanks for publishing this kind of book......not only for versity but also for important mathematical term....i like it......😊😊😊😊</t>
+        </is>
+      </c>
+      <c r="D2555" t="inlineStr">
+        <is>
+          <t>এই ধরণের বই প্রকাশের জন্য ধন্যবাদ ...... কেবল বৈষম্য নয়, গুরুত্বপূর্ণ গাণিতিক শব্দটির জন্যও .... আমি এটি পছন্দ করি ...... 😊😊😊😊 😊😊😊😊</t>
+        </is>
+      </c>
+      <c r="E2555" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2556">
+      <c r="A2556" t="n">
+        <v>2555</v>
+      </c>
+      <c r="B2556" t="inlineStr">
+        <is>
+          <t>E&amp;RB</t>
+        </is>
+      </c>
+      <c r="C2556" t="inlineStr">
+        <is>
+          <t>onk helpful bishesh kre jaader short time e beshi math krar iccha tader jnno ekhane technic guli onk folproshu</t>
+        </is>
+      </c>
+      <c r="D2556" t="inlineStr">
+        <is>
+          <t>অনেক হেল্পফুল বিশেষ করে যাদের শর্ট টাইম এ বেশি ম্যাথ করার ইচ্ছা তাদের জন্য এখানে টেকনিক গুলি অংক ফলপ্রসূ</t>
+        </is>
+      </c>
+      <c r="E2556" t="inlineStr">
+        <is>
+          <t>bn</t>
+        </is>
+      </c>
+    </row>
+    <row r="2557">
+      <c r="A2557" t="n">
+        <v>2556</v>
+      </c>
+      <c r="B2557" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2557" t="inlineStr">
+        <is>
+          <t>খুব ভাল বই আমি আজকে পেয়েছি ডেলিভারি।শরটকাট টেক্নিক খুব ভাল লাগছে।আমি খুব সেটিস্ফাইড।</t>
+        </is>
+      </c>
+      <c r="D2557" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2557" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2558">
+      <c r="A2558" t="n">
+        <v>2557</v>
+      </c>
+      <c r="B2558" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2558" t="inlineStr">
+        <is>
+          <t>বইটা অসাধারণ..........আমি এটি চাই</t>
+        </is>
+      </c>
+      <c r="D2558" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2558" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+    </row>
+    <row r="2559">
+      <c r="A2559" t="n">
+        <v>2558</v>
+      </c>
+      <c r="B2559" t="inlineStr">
+        <is>
+          <t>Bangla</t>
+        </is>
+      </c>
+      <c r="C2559" t="inlineStr">
+        <is>
+          <t>অনেক ভালো লেগেছে বইটি পরে খুব</t>
+        </is>
+      </c>
+      <c r="D2559" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2559" t="inlineStr">
         <is>
           <t>Bangla</t>
         </is>
